--- a/capiq_data/in_process_data/IQ255251.xlsx
+++ b/capiq_data/in_process_data/IQ255251.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782A404-8E1D-4A73-8074-0250FEDFBEFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3515AA8-7ABC-4CF5-AAFF-5B9BA20E965F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d30dbfb5-dd82-41bf-9fa7-255e81c4cec8"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"28e2c8d0-fd03-4174-a90e-09f92fe9625a"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
     <t>FQ32010</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ32020</t>
+  </si>
+  <si>
+    <t>FQ42020</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40451</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>2989</v>
+        <v>1084</v>
       </c>
       <c r="D2">
-        <v>35816</v>
+        <v>11818</v>
       </c>
       <c r="E2">
-        <v>15105</v>
+        <v>8767</v>
       </c>
       <c r="F2">
-        <v>5026</v>
+        <v>2111</v>
       </c>
       <c r="G2">
-        <v>75435</v>
+        <v>31182</v>
       </c>
       <c r="H2">
-        <v>363979</v>
+        <v>135792</v>
       </c>
       <c r="I2">
-        <v>27550</v>
+        <v>2861</v>
       </c>
       <c r="J2">
-        <v>42752</v>
+        <v>1672</v>
       </c>
       <c r="K2">
-        <v>1364</v>
+        <v>991</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,247 +892,247 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>74387</v>
+        <v>13449</v>
       </c>
       <c r="O2">
-        <v>209382</v>
+        <v>72799</v>
       </c>
       <c r="P2">
-        <v>58663</v>
+        <v>8165</v>
       </c>
       <c r="Q2">
-        <v>6508</v>
+        <v>1931</v>
       </c>
       <c r="R2">
-        <v>40451</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>154597</v>
+        <v>62993</v>
       </c>
       <c r="U2">
-        <v>33418</v>
+        <v>5263</v>
       </c>
       <c r="V2">
-        <v>6971</v>
+        <v>1064</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>733</v>
+        <v>3486</v>
       </c>
       <c r="AA2">
-        <v>2989</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>4377</v>
+        <v>606</v>
       </c>
       <c r="D3">
-        <v>36239</v>
+        <v>7900</v>
       </c>
       <c r="E3">
-        <v>18182</v>
+        <v>11553</v>
       </c>
       <c r="F3">
-        <v>6968</v>
+        <v>1159</v>
       </c>
       <c r="G3">
-        <v>82045</v>
+        <v>46180</v>
       </c>
       <c r="H3">
-        <v>372229</v>
+        <v>146690</v>
       </c>
       <c r="I3">
-        <v>25908</v>
+        <v>9417</v>
       </c>
       <c r="J3">
-        <v>42415</v>
+        <v>4056</v>
       </c>
       <c r="K3">
-        <v>1682</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-168</v>
       </c>
       <c r="N3">
-        <v>38544</v>
+        <v>30162</v>
       </c>
       <c r="O3">
-        <v>209295</v>
+        <v>86938</v>
       </c>
       <c r="P3">
-        <v>58574</v>
+        <v>21049</v>
       </c>
       <c r="Q3">
-        <v>3766</v>
+        <v>836</v>
       </c>
       <c r="R3">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>260000</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>162934</v>
+        <v>59752</v>
       </c>
       <c r="U3">
-        <v>37324</v>
+        <v>5845</v>
       </c>
       <c r="V3">
-        <v>4064</v>
+        <v>733</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-116</v>
+        <v>842</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1626</v>
+        <v>4005</v>
       </c>
       <c r="AA3">
-        <v>4377</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1511</v>
+        <v>773</v>
       </c>
       <c r="D4">
-        <v>34127</v>
+        <v>10388</v>
       </c>
       <c r="E4">
-        <v>16617</v>
+        <v>11789</v>
       </c>
       <c r="F4">
-        <v>2726</v>
+        <v>1408</v>
       </c>
       <c r="G4">
-        <v>83865</v>
+        <v>48155</v>
       </c>
       <c r="H4">
-        <v>376496</v>
+        <v>148776</v>
       </c>
       <c r="I4">
-        <v>27804</v>
+        <v>9503</v>
       </c>
       <c r="J4">
-        <v>40456</v>
+        <v>3660</v>
       </c>
       <c r="K4">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-4009</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>76547</v>
+        <v>30582</v>
       </c>
       <c r="O4">
-        <v>212231</v>
+        <v>88706</v>
       </c>
       <c r="P4">
-        <v>56546</v>
+        <v>22548</v>
       </c>
       <c r="Q4">
-        <v>2951</v>
+        <v>1771</v>
       </c>
       <c r="R4">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>164265</v>
+        <v>60070</v>
       </c>
       <c r="U4">
-        <v>40558</v>
+        <v>7143</v>
       </c>
       <c r="V4">
-        <v>3502</v>
+        <v>1881</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-3559</v>
+        <v>148</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>4100</v>
+        <v>-135</v>
       </c>
       <c r="AA4">
-        <v>1511</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>3417</v>
+        <v>-679</v>
       </c>
       <c r="D5">
-        <v>36985</v>
+        <v>9228</v>
       </c>
       <c r="E5">
-        <v>16435</v>
+        <v>11858</v>
       </c>
       <c r="F5">
-        <v>5762</v>
+        <v>-897</v>
       </c>
       <c r="G5">
-        <v>89965</v>
+        <v>36571</v>
       </c>
       <c r="H5">
-        <v>382696</v>
+        <v>160054</v>
       </c>
       <c r="I5">
-        <v>28111</v>
+        <v>9209</v>
       </c>
       <c r="J5">
-        <v>40905</v>
+        <v>3586</v>
       </c>
       <c r="K5">
-        <v>1532</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>77145</v>
+        <v>30236</v>
       </c>
       <c r="O5">
-        <v>215912</v>
+        <v>101558</v>
       </c>
       <c r="P5">
-        <v>56717</v>
+        <v>28364</v>
       </c>
       <c r="Q5">
-        <v>6713</v>
+        <v>-1850</v>
       </c>
       <c r="R5">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>166784</v>
+        <v>58496</v>
       </c>
       <c r="U5">
-        <v>45997</v>
+        <v>4981</v>
       </c>
       <c r="V5">
-        <v>6481</v>
+        <v>1680</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-147</v>
+        <v>5855</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1647</v>
+        <v>-3135</v>
       </c>
       <c r="AA5">
-        <v>3417</v>
+        <v>-679</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>2278</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>33647</v>
+        <v>9764</v>
       </c>
       <c r="E6">
-        <v>16917</v>
+        <v>5571</v>
       </c>
       <c r="F6">
-        <v>3870</v>
+        <v>465</v>
       </c>
       <c r="G6">
-        <v>77957</v>
+        <v>34712</v>
       </c>
       <c r="H6">
-        <v>385494</v>
+        <v>162752</v>
       </c>
       <c r="I6">
-        <v>29620</v>
+        <v>4249</v>
       </c>
       <c r="J6">
-        <v>44867</v>
+        <v>1708</v>
       </c>
       <c r="K6">
-        <v>1525</v>
+        <v>1777</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,247 +1224,247 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>80337</v>
+        <v>34095</v>
       </c>
       <c r="O6">
-        <v>221613</v>
+        <v>103453</v>
       </c>
       <c r="P6">
-        <v>60484</v>
+        <v>33969</v>
       </c>
       <c r="Q6">
-        <v>-13115</v>
+        <v>137</v>
       </c>
       <c r="R6">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>163881</v>
+        <v>59299</v>
       </c>
       <c r="U6">
-        <v>33552</v>
+        <v>5313</v>
       </c>
       <c r="V6">
-        <v>5999</v>
+        <v>2280</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1948</v>
+        <v>-831</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-10959</v>
+        <v>-1629</v>
       </c>
       <c r="AA6">
-        <v>2278</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>3048</v>
+        <v>916</v>
       </c>
       <c r="D7">
-        <v>37655</v>
+        <v>9341</v>
       </c>
       <c r="E7">
-        <v>16059</v>
+        <v>11374</v>
       </c>
       <c r="F7">
-        <v>4967</v>
+        <v>1367</v>
       </c>
       <c r="G7">
-        <v>79547</v>
+        <v>34329</v>
       </c>
       <c r="H7">
-        <v>392647</v>
+        <v>164624</v>
       </c>
       <c r="I7">
-        <v>29415</v>
+        <v>9894</v>
       </c>
       <c r="J7">
-        <v>44858</v>
+        <v>3724</v>
       </c>
       <c r="K7">
-        <v>1490</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-1584</v>
       </c>
       <c r="N7">
-        <v>43303</v>
+        <v>30425</v>
       </c>
       <c r="O7">
-        <v>223686</v>
+        <v>102849</v>
       </c>
       <c r="P7">
-        <v>60384</v>
+        <v>27981</v>
       </c>
       <c r="Q7">
-        <v>2523</v>
+        <v>2047</v>
       </c>
       <c r="R7">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>271000</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>168961</v>
+        <v>61775</v>
       </c>
       <c r="U7">
-        <v>35759</v>
+        <v>7374</v>
       </c>
       <c r="V7">
-        <v>4494</v>
+        <v>3427</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-459</v>
+        <v>-650</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1578</v>
+        <v>-734</v>
       </c>
       <c r="AA7">
-        <v>3048</v>
+        <v>916</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>3245</v>
+        <v>1045</v>
       </c>
       <c r="D8">
-        <v>38253</v>
+        <v>9959</v>
       </c>
       <c r="E8">
-        <v>18467</v>
+        <v>12623</v>
       </c>
       <c r="F8">
-        <v>5462</v>
+        <v>1486</v>
       </c>
       <c r="G8">
-        <v>82339</v>
+        <v>34713</v>
       </c>
       <c r="H8">
-        <v>411362</v>
+        <v>167497</v>
       </c>
       <c r="I8">
-        <v>30540</v>
+        <v>11217</v>
       </c>
       <c r="J8">
-        <v>46754</v>
+        <v>4091</v>
       </c>
       <c r="K8">
-        <v>1404</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-904</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>-2284</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>85978</v>
+        <v>31084</v>
       </c>
       <c r="O8">
-        <v>231093</v>
+        <v>103751</v>
       </c>
       <c r="P8">
-        <v>61835</v>
+        <v>23425</v>
       </c>
       <c r="Q8">
-        <v>527</v>
+        <v>178</v>
       </c>
       <c r="R8">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>180269</v>
+        <v>63746</v>
       </c>
       <c r="U8">
-        <v>36252</v>
+        <v>7260</v>
       </c>
       <c r="V8">
-        <v>4650</v>
+        <v>3319</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>1343</v>
+        <v>-2800</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-2309</v>
+        <v>-1108</v>
       </c>
       <c r="AA8">
-        <v>3245</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>3108</v>
+        <v>1141</v>
       </c>
       <c r="D9">
-        <v>38421</v>
+        <v>10380</v>
       </c>
       <c r="E9">
-        <v>18298</v>
+        <v>14393</v>
       </c>
       <c r="F9">
-        <v>5160</v>
+        <v>1576</v>
       </c>
       <c r="G9">
-        <v>85300</v>
+        <v>38249</v>
       </c>
       <c r="H9">
-        <v>411356</v>
+        <v>167749</v>
       </c>
       <c r="I9">
-        <v>30315</v>
+        <v>11430</v>
       </c>
       <c r="J9">
-        <v>46287</v>
+        <v>4300</v>
       </c>
       <c r="K9">
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>86091</v>
+        <v>41522</v>
       </c>
       <c r="O9">
-        <v>229641</v>
+        <v>103774</v>
       </c>
       <c r="P9">
-        <v>61132</v>
+        <v>24094</v>
       </c>
       <c r="Q9">
-        <v>2835</v>
+        <v>1715</v>
       </c>
       <c r="R9">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>181715</v>
+        <v>63975</v>
       </c>
       <c r="U9">
-        <v>39410</v>
+        <v>8483</v>
       </c>
       <c r="V9">
-        <v>4859</v>
+        <v>2564</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-684</v>
+        <v>-389</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>926</v>
+        <v>-639</v>
       </c>
       <c r="AA9">
-        <v>3108</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>3920</v>
+        <v>1184</v>
       </c>
       <c r="D10">
-        <v>40133</v>
+        <v>11637</v>
       </c>
       <c r="E10">
-        <v>18621</v>
+        <v>10380</v>
       </c>
       <c r="F10">
-        <v>6480</v>
+        <v>1763</v>
       </c>
       <c r="G10">
-        <v>92152</v>
+        <v>39668</v>
       </c>
       <c r="H10">
-        <v>424115</v>
+        <v>169544</v>
       </c>
       <c r="I10">
-        <v>31672</v>
+        <v>4995</v>
       </c>
       <c r="J10">
-        <v>47912</v>
+        <v>2592</v>
       </c>
       <c r="K10">
-        <v>1225</v>
+        <v>2183</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,247 +1556,247 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>88939</v>
+        <v>28446</v>
       </c>
       <c r="O10">
-        <v>235041</v>
+        <v>104116</v>
       </c>
       <c r="P10">
-        <v>62509</v>
+        <v>23077</v>
       </c>
       <c r="Q10">
-        <v>7115</v>
+        <v>2310</v>
       </c>
       <c r="R10">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>189074</v>
+        <v>65428</v>
       </c>
       <c r="U10">
-        <v>45939</v>
+        <v>10283</v>
       </c>
       <c r="V10">
-        <v>6651</v>
+        <v>1825</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1020</v>
+        <v>265</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2504</v>
+        <v>1625</v>
       </c>
       <c r="AA10">
-        <v>3920</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>4551</v>
+        <v>1730</v>
       </c>
       <c r="D11">
-        <v>44194</v>
+        <v>10553</v>
       </c>
       <c r="E11">
-        <v>18828</v>
+        <v>6143</v>
       </c>
       <c r="F11">
-        <v>7276</v>
+        <v>2462</v>
       </c>
       <c r="G11">
-        <v>91449</v>
+        <v>45617</v>
       </c>
       <c r="H11">
-        <v>427452</v>
+        <v>169616</v>
       </c>
       <c r="I11">
-        <v>32215</v>
+        <v>4705</v>
       </c>
       <c r="J11">
-        <v>48275</v>
+        <v>2678</v>
       </c>
       <c r="K11">
-        <v>1416</v>
+        <v>1770</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-585</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-1280</v>
       </c>
       <c r="N11">
-        <v>43508</v>
+        <v>26487</v>
       </c>
       <c r="O11">
-        <v>235864</v>
+        <v>102832</v>
       </c>
       <c r="P11">
-        <v>62736</v>
+        <v>19773</v>
       </c>
       <c r="Q11">
-        <v>-784</v>
+        <v>6744</v>
       </c>
       <c r="R11">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>288500</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>191588</v>
+        <v>66784</v>
       </c>
       <c r="U11">
-        <v>44928</v>
+        <v>16130</v>
       </c>
       <c r="V11">
-        <v>4790</v>
+        <v>2641</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-2485</v>
+        <v>-1053</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>387</v>
+        <v>4546</v>
       </c>
       <c r="AA11">
-        <v>4551</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>4892</v>
+        <v>2229</v>
       </c>
       <c r="D12">
-        <v>43362</v>
+        <v>13005</v>
       </c>
       <c r="E12">
-        <v>20498</v>
+        <v>13337</v>
       </c>
       <c r="F12">
-        <v>7835</v>
+        <v>3288</v>
       </c>
       <c r="G12">
-        <v>95109</v>
+        <v>54081</v>
       </c>
       <c r="H12">
-        <v>442302</v>
+        <v>172930</v>
       </c>
       <c r="I12">
-        <v>33160</v>
+        <v>6246</v>
       </c>
       <c r="J12">
-        <v>48935</v>
+        <v>2814</v>
       </c>
       <c r="K12">
-        <v>1354</v>
+        <v>1582</v>
       </c>
       <c r="L12">
-        <v>-496</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>-3448</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>92059</v>
+        <v>23758</v>
       </c>
       <c r="O12">
-        <v>240196</v>
+        <v>100823</v>
       </c>
       <c r="P12">
-        <v>63249</v>
+        <v>16442</v>
       </c>
       <c r="Q12">
-        <v>2097</v>
+        <v>8952</v>
       </c>
       <c r="R12">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>202106</v>
+        <v>72107</v>
       </c>
       <c r="U12">
-        <v>46987</v>
+        <v>24425</v>
       </c>
       <c r="V12">
-        <v>6055</v>
+        <v>972</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>57</v>
+        <v>-167</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-444</v>
+        <v>8730</v>
       </c>
       <c r="AA12">
-        <v>4892</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>4541</v>
+        <v>1806</v>
       </c>
       <c r="D13">
-        <v>44201</v>
+        <v>17598</v>
       </c>
       <c r="E13">
-        <v>19005</v>
+        <v>10039</v>
       </c>
       <c r="F13">
-        <v>7441</v>
+        <v>2502</v>
       </c>
       <c r="G13">
-        <v>80450</v>
+        <v>57114</v>
       </c>
       <c r="H13">
-        <v>446563</v>
+        <v>172239</v>
       </c>
       <c r="I13">
-        <v>34286</v>
+        <v>6807</v>
       </c>
       <c r="J13">
-        <v>49841</v>
+        <v>2595</v>
       </c>
       <c r="K13">
-        <v>1281</v>
+        <v>1553</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>92600</v>
+        <v>22162</v>
       </c>
       <c r="O13">
-        <v>241575</v>
+        <v>99556</v>
       </c>
       <c r="P13">
-        <v>63953</v>
+        <v>16077</v>
       </c>
       <c r="Q13">
-        <v>-13394</v>
+        <v>2301</v>
       </c>
       <c r="R13">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>204988</v>
+        <v>72683</v>
       </c>
       <c r="U13">
-        <v>33780</v>
+        <v>26952</v>
       </c>
       <c r="V13">
-        <v>6856</v>
+        <v>2407</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-1762</v>
+        <v>-1587</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-14941</v>
+        <v>3379</v>
       </c>
       <c r="AA13">
-        <v>4541</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>5053</v>
+        <v>2386</v>
       </c>
       <c r="D14">
-        <v>44827</v>
+        <v>18574</v>
       </c>
       <c r="E14">
-        <v>24064</v>
+        <v>9533</v>
       </c>
       <c r="F14">
-        <v>7952</v>
+        <v>3492</v>
       </c>
       <c r="G14">
-        <v>92015</v>
+        <v>62462</v>
       </c>
       <c r="H14">
-        <v>458081</v>
+        <v>180559</v>
       </c>
       <c r="I14">
-        <v>35112</v>
+        <v>6871</v>
       </c>
       <c r="J14">
-        <v>51976</v>
+        <v>2655</v>
       </c>
       <c r="K14">
-        <v>1063</v>
+        <v>1527</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,247 +1888,247 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>94150</v>
+        <v>22939</v>
       </c>
       <c r="O14">
-        <v>246650</v>
+        <v>102218</v>
       </c>
       <c r="P14">
-        <v>65749</v>
+        <v>17050</v>
       </c>
       <c r="Q14">
-        <v>6384</v>
+        <v>5212</v>
       </c>
       <c r="R14">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>172700</v>
       </c>
       <c r="T14">
-        <v>211431</v>
+        <v>78341</v>
       </c>
       <c r="U14">
-        <v>40028</v>
+        <v>31262</v>
       </c>
       <c r="V14">
-        <v>7826</v>
+        <v>2418</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>1492</v>
+        <v>1646</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-115</v>
+        <v>1750</v>
       </c>
       <c r="AA14">
-        <v>5053</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>4990</v>
+        <v>1550</v>
       </c>
       <c r="D15">
-        <v>45695</v>
+        <v>16198</v>
       </c>
       <c r="E15">
-        <v>17225</v>
+        <v>10054</v>
       </c>
       <c r="F15">
-        <v>7828</v>
+        <v>2196</v>
       </c>
       <c r="G15">
-        <v>91239</v>
+        <v>93152</v>
       </c>
       <c r="H15">
-        <v>484931</v>
+        <v>210954</v>
       </c>
       <c r="I15">
-        <v>33663</v>
+        <v>6259</v>
       </c>
       <c r="J15">
-        <v>58146</v>
+        <v>2596</v>
       </c>
       <c r="K15">
-        <v>949</v>
+        <v>1402</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-139</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-663</v>
       </c>
       <c r="N15">
-        <v>41747</v>
+        <v>47847</v>
       </c>
       <c r="O15">
-        <v>260446</v>
+        <v>130399</v>
       </c>
       <c r="P15">
-        <v>72224</v>
+        <v>27894</v>
       </c>
       <c r="Q15">
-        <v>6107</v>
+        <v>4954</v>
       </c>
       <c r="R15">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>302000</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>224485</v>
+        <v>80555</v>
       </c>
       <c r="U15">
-        <v>45833</v>
+        <v>34683</v>
       </c>
       <c r="V15">
-        <v>6967</v>
+        <v>2179</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1174</v>
+        <v>-30</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>6529</v>
+        <v>1654</v>
       </c>
       <c r="AA15">
-        <v>4990</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>4705</v>
+        <v>1282</v>
       </c>
       <c r="D16">
-        <v>44322</v>
+        <v>18597</v>
       </c>
       <c r="E16">
-        <v>19521</v>
+        <v>9354</v>
       </c>
       <c r="F16">
-        <v>7261</v>
+        <v>1878</v>
       </c>
       <c r="G16">
-        <v>94467</v>
+        <v>86656</v>
       </c>
       <c r="H16">
-        <v>494944</v>
+        <v>203426</v>
       </c>
       <c r="I16">
-        <v>35156</v>
+        <v>6919</v>
       </c>
       <c r="J16">
-        <v>59221</v>
+        <v>2588</v>
       </c>
       <c r="K16">
-        <v>978</v>
+        <v>1242</v>
       </c>
       <c r="L16">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-1719</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>102751</v>
+        <v>42546</v>
       </c>
       <c r="O16">
-        <v>264655</v>
+        <v>122147</v>
       </c>
       <c r="P16">
-        <v>73223</v>
+        <v>23488</v>
       </c>
       <c r="Q16">
-        <v>762</v>
+        <v>-710</v>
       </c>
       <c r="R16">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>230289</v>
+        <v>81279</v>
       </c>
       <c r="U16">
-        <v>46040</v>
+        <v>35493</v>
       </c>
       <c r="V16">
-        <v>4928</v>
+        <v>20</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-311</v>
+        <v>-834</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1018</v>
+        <v>950</v>
       </c>
       <c r="AA16">
-        <v>4705</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>6395</v>
+        <v>1137</v>
       </c>
       <c r="D17">
-        <v>47396</v>
+        <v>18406</v>
       </c>
       <c r="E17">
-        <v>19764</v>
+        <v>9201</v>
       </c>
       <c r="F17">
-        <v>9623</v>
+        <v>1963</v>
       </c>
       <c r="G17">
-        <v>101258</v>
+        <v>66648</v>
       </c>
       <c r="H17">
-        <v>504379</v>
+        <v>181860</v>
       </c>
       <c r="I17">
-        <v>36183</v>
+        <v>6821</v>
       </c>
       <c r="J17">
-        <v>60360</v>
+        <v>2476</v>
       </c>
       <c r="K17">
-        <v>890</v>
+        <v>1115</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>104084</v>
+        <v>18565</v>
       </c>
       <c r="O17">
-        <v>267619</v>
+        <v>100455</v>
       </c>
       <c r="P17">
-        <v>74087</v>
+        <v>15252</v>
       </c>
       <c r="Q17">
-        <v>6507</v>
+        <v>2816</v>
       </c>
       <c r="R17">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>236760</v>
+        <v>81405</v>
       </c>
       <c r="U17">
-        <v>52592</v>
+        <v>38130</v>
       </c>
       <c r="V17">
-        <v>6905</v>
+        <v>2878</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>550</v>
+        <v>751</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2184</v>
+        <v>272</v>
       </c>
       <c r="AA17">
-        <v>6395</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>4617</v>
+        <v>3339</v>
       </c>
       <c r="D18">
-        <v>51575</v>
+        <v>19545</v>
       </c>
       <c r="E18">
-        <v>20796</v>
+        <v>8735</v>
       </c>
       <c r="F18">
-        <v>7456</v>
+        <v>4799</v>
       </c>
       <c r="G18">
-        <v>109200</v>
+        <v>73618</v>
       </c>
       <c r="H18">
-        <v>517363</v>
+        <v>188874</v>
       </c>
       <c r="I18">
-        <v>38392</v>
+        <v>7500</v>
       </c>
       <c r="J18">
-        <v>61205</v>
+        <v>2311</v>
       </c>
       <c r="K18">
-        <v>817</v>
+        <v>1139</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,247 +2220,247 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>106529</v>
+        <v>21898</v>
       </c>
       <c r="O18">
-        <v>277061</v>
+        <v>102216</v>
       </c>
       <c r="P18">
-        <v>74812</v>
+        <v>14610</v>
       </c>
       <c r="Q18">
-        <v>6925</v>
+        <v>410</v>
       </c>
       <c r="R18">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="T18">
-        <v>240302</v>
+        <v>86658</v>
       </c>
       <c r="U18">
-        <v>59785</v>
+        <v>40020</v>
       </c>
       <c r="V18">
-        <v>12324</v>
+        <v>2234</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>937</v>
+        <v>-43</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-1889</v>
+        <v>1975</v>
       </c>
       <c r="AA18">
-        <v>4617</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>4155</v>
+        <v>1363</v>
       </c>
       <c r="D19">
-        <v>47805</v>
+        <v>17374</v>
       </c>
       <c r="E19">
-        <v>18736</v>
+        <v>9640</v>
       </c>
       <c r="F19">
-        <v>6562</v>
+        <v>1862</v>
       </c>
       <c r="G19">
-        <v>108031</v>
+        <v>75967</v>
       </c>
       <c r="H19">
-        <v>525867</v>
+        <v>191075</v>
       </c>
       <c r="I19">
-        <v>29005</v>
+        <v>7256</v>
       </c>
       <c r="J19">
-        <v>66321</v>
+        <v>2158</v>
       </c>
       <c r="K19">
-        <v>839</v>
+        <v>1120</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-259</v>
       </c>
       <c r="N19">
-        <v>35504</v>
+        <v>19881</v>
       </c>
       <c r="O19">
-        <v>282840</v>
+        <v>103854</v>
       </c>
       <c r="P19">
-        <v>79890</v>
+        <v>17817</v>
       </c>
       <c r="Q19">
-        <v>889</v>
+        <v>3282</v>
       </c>
       <c r="R19">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>316000</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>243027</v>
+        <v>87221</v>
       </c>
       <c r="U19">
-        <v>60975</v>
+        <v>44058</v>
       </c>
       <c r="V19">
-        <v>7853</v>
+        <v>1359</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1555</v>
+        <v>3579</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>323</v>
+        <v>-1066</v>
       </c>
       <c r="AA19">
-        <v>4155</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>5164</v>
+        <v>1449</v>
       </c>
       <c r="D20">
-        <v>48547</v>
+        <v>17835</v>
       </c>
       <c r="E20">
-        <v>20842</v>
+        <v>9741</v>
       </c>
       <c r="F20">
-        <v>8423</v>
+        <v>2094</v>
       </c>
       <c r="G20">
-        <v>111979</v>
+        <v>77111</v>
       </c>
       <c r="H20">
-        <v>531076</v>
+        <v>194835</v>
       </c>
       <c r="I20">
-        <v>38215</v>
+        <v>8485</v>
       </c>
       <c r="J20">
-        <v>69215</v>
+        <v>1992</v>
       </c>
       <c r="K20">
-        <v>1918</v>
+        <v>1114</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-3431</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>106831</v>
+        <v>20370</v>
       </c>
       <c r="O20">
-        <v>286237</v>
+        <v>105971</v>
       </c>
       <c r="P20">
-        <v>83795</v>
+        <v>18359</v>
       </c>
       <c r="Q20">
-        <v>442</v>
+        <v>1053</v>
       </c>
       <c r="R20">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>244839</v>
+        <v>88864</v>
       </c>
       <c r="U20">
-        <v>61720</v>
+        <v>43253</v>
       </c>
       <c r="V20">
-        <v>5963</v>
+        <v>1734</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>2818</v>
+        <v>1331</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-787</v>
+        <v>-1186</v>
       </c>
       <c r="AA20">
-        <v>5164</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>4013</v>
+        <v>586</v>
       </c>
       <c r="D21">
-        <v>51006</v>
+        <v>19939</v>
       </c>
       <c r="E21">
-        <v>21285</v>
+        <v>10274</v>
       </c>
       <c r="F21">
-        <v>6716</v>
+        <v>733</v>
       </c>
       <c r="G21">
-        <v>115973</v>
+        <v>75931</v>
       </c>
       <c r="H21">
-        <v>540774</v>
+        <v>196710</v>
       </c>
       <c r="I21">
-        <v>39723</v>
+        <v>8968</v>
       </c>
       <c r="J21">
-        <v>69913</v>
+        <v>2207</v>
       </c>
       <c r="K21">
-        <v>2102</v>
+        <v>1258</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>110066</v>
+        <v>28557</v>
       </c>
       <c r="O21">
-        <v>291572</v>
+        <v>106391</v>
       </c>
       <c r="P21">
-        <v>84578</v>
+        <v>15460</v>
       </c>
       <c r="Q21">
-        <v>2876</v>
+        <v>-1730</v>
       </c>
       <c r="R21">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>249202</v>
+        <v>90319</v>
       </c>
       <c r="U21">
-        <v>64254</v>
+        <v>41143</v>
       </c>
       <c r="V21">
-        <v>7980</v>
+        <v>2560</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-1851</v>
+        <v>-3250</v>
       </c>
       <c r="AA21">
-        <v>4013</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>9428</v>
+        <v>5130</v>
       </c>
       <c r="D22">
-        <v>50723</v>
+        <v>18765</v>
       </c>
       <c r="E22">
-        <v>21111</v>
+        <v>9407</v>
       </c>
       <c r="F22">
-        <v>14832</v>
+        <v>7723</v>
       </c>
       <c r="G22">
-        <v>115534</v>
+        <v>73088</v>
       </c>
       <c r="H22">
-        <v>545468</v>
+        <v>198325</v>
       </c>
       <c r="I22">
-        <v>39520</v>
+        <v>8699</v>
       </c>
       <c r="J22">
-        <v>70519</v>
+        <v>2202</v>
       </c>
       <c r="K22">
-        <v>1909</v>
+        <v>1381</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,247 +2552,247 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>110346</v>
+        <v>19750</v>
       </c>
       <c r="O22">
-        <v>294147</v>
+        <v>106025</v>
       </c>
       <c r="P22">
-        <v>84911</v>
+        <v>14451</v>
       </c>
       <c r="Q22">
-        <v>-327</v>
+        <v>-1372</v>
       </c>
       <c r="R22">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>192000</v>
       </c>
       <c r="T22">
-        <v>251321</v>
+        <v>92300</v>
       </c>
       <c r="U22">
-        <v>60857</v>
+        <v>40471</v>
       </c>
       <c r="V22">
-        <v>10212</v>
+        <v>3793</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>602</v>
+        <v>303</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-5827</v>
+        <v>-4442</v>
       </c>
       <c r="AA22">
-        <v>9428</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>5478</v>
+        <v>2313</v>
       </c>
       <c r="D23">
-        <v>51294</v>
+        <v>22314</v>
       </c>
       <c r="E23">
-        <v>19996</v>
+        <v>10321</v>
       </c>
       <c r="F23">
-        <v>8210</v>
+        <v>3838</v>
       </c>
       <c r="G23">
-        <v>119824</v>
+        <v>71419</v>
       </c>
       <c r="H23">
-        <v>552257</v>
+        <v>230206</v>
       </c>
       <c r="I23">
-        <v>29636</v>
+        <v>13386</v>
       </c>
       <c r="J23">
-        <v>70349</v>
+        <v>19658</v>
       </c>
       <c r="K23">
-        <v>1989</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-307</v>
       </c>
       <c r="N23">
-        <v>37023</v>
+        <v>18800</v>
       </c>
       <c r="O23">
-        <v>293630</v>
+        <v>133118</v>
       </c>
       <c r="P23">
-        <v>84289</v>
+        <v>30479</v>
       </c>
       <c r="Q23">
-        <v>4137</v>
+        <v>-2160</v>
       </c>
       <c r="R23">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>361270</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>258627</v>
+        <v>97088</v>
       </c>
       <c r="U23">
-        <v>60049</v>
+        <v>38384</v>
       </c>
       <c r="V23">
-        <v>7336</v>
+        <v>2359</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>5</v>
+        <v>1619</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>970</v>
+        <v>-128</v>
       </c>
       <c r="AA23">
-        <v>5478</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>5589</v>
+        <v>2347</v>
       </c>
       <c r="D24">
-        <v>50313</v>
+        <v>23917</v>
       </c>
       <c r="E24">
-        <v>23667</v>
+        <v>10678</v>
       </c>
       <c r="F24">
-        <v>7288</v>
+        <v>3911</v>
       </c>
       <c r="G24">
-        <v>114408</v>
+        <v>71147</v>
       </c>
       <c r="H24">
-        <v>586315</v>
+        <v>232331</v>
       </c>
       <c r="I24">
-        <v>30966</v>
+        <v>13944</v>
       </c>
       <c r="J24">
-        <v>83618</v>
+        <v>19751</v>
       </c>
       <c r="K24">
-        <v>2565</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-991</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>110983</v>
+        <v>18118</v>
       </c>
       <c r="O24">
-        <v>324478</v>
+        <v>132865</v>
       </c>
       <c r="P24">
-        <v>101539</v>
+        <v>30557</v>
       </c>
       <c r="Q24">
-        <v>-24786</v>
+        <v>-789</v>
       </c>
       <c r="R24">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>261837</v>
+        <v>99466</v>
       </c>
       <c r="U24">
-        <v>56279</v>
+        <v>37663</v>
       </c>
       <c r="V24">
-        <v>7454</v>
+        <v>1092</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>11613</v>
+        <v>-26</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-10347</v>
+        <v>-1486</v>
       </c>
       <c r="AA24">
-        <v>5589</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>5001</v>
+        <v>2772</v>
       </c>
       <c r="D25">
-        <v>53611</v>
+        <v>25082</v>
       </c>
       <c r="E25">
-        <v>23689</v>
+        <v>10861</v>
       </c>
       <c r="F25">
-        <v>7790</v>
+        <v>4627</v>
       </c>
       <c r="G25">
-        <v>128758</v>
+        <v>72564</v>
       </c>
       <c r="H25">
-        <v>592816</v>
+        <v>240002</v>
       </c>
       <c r="I25">
-        <v>31866</v>
+        <v>16995</v>
       </c>
       <c r="J25">
-        <v>83990</v>
+        <v>20175</v>
       </c>
       <c r="K25">
-        <v>2172</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>112591</v>
+        <v>22004</v>
       </c>
       <c r="O25">
-        <v>326558</v>
+        <v>135622</v>
       </c>
       <c r="P25">
-        <v>101413</v>
+        <v>30970</v>
       </c>
       <c r="Q25">
-        <v>1549</v>
+        <v>180</v>
       </c>
       <c r="R25">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>266258</v>
+        <v>104380</v>
       </c>
       <c r="U25">
-        <v>64824</v>
+        <v>37338</v>
       </c>
       <c r="V25">
-        <v>7810</v>
+        <v>4431</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>140</v>
+        <v>-482</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-2914</v>
+        <v>1833</v>
       </c>
       <c r="AA25">
-        <v>5001</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>7198</v>
+        <v>3583</v>
       </c>
       <c r="D26">
-        <v>55693</v>
+        <v>25415</v>
       </c>
       <c r="E26">
-        <v>24062</v>
+        <v>9920</v>
       </c>
       <c r="F26">
-        <v>11240</v>
+        <v>5576</v>
       </c>
       <c r="G26">
-        <v>141460</v>
+        <v>74003</v>
       </c>
       <c r="H26">
-        <v>604038</v>
+        <v>248437</v>
       </c>
       <c r="I26">
-        <v>33818</v>
+        <v>13619</v>
       </c>
       <c r="J26">
-        <v>84306</v>
+        <v>19289</v>
       </c>
       <c r="K26">
-        <v>2019</v>
+        <v>1355</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,247 +2884,247 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>115194</v>
+        <v>24188</v>
       </c>
       <c r="O26">
-        <v>331423</v>
+        <v>137756</v>
       </c>
       <c r="P26">
-        <v>101798</v>
+        <v>32605</v>
       </c>
       <c r="Q26">
-        <v>-14655</v>
+        <v>1494</v>
       </c>
       <c r="R26">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>217000</v>
       </c>
       <c r="T26">
-        <v>272615</v>
+        <v>110681</v>
       </c>
       <c r="U26">
-        <v>72162</v>
+        <v>38320</v>
       </c>
       <c r="V26">
-        <v>9833</v>
+        <v>2313</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>443</v>
+        <v>1379</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-21106</v>
+        <v>-1230</v>
       </c>
       <c r="AA26">
-        <v>7198</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>6286</v>
+        <v>2595</v>
       </c>
       <c r="D27">
-        <v>56434</v>
+        <v>32475</v>
       </c>
       <c r="E27">
-        <v>23759</v>
+        <v>17298</v>
       </c>
       <c r="F27">
-        <v>9513</v>
+        <v>4387</v>
       </c>
       <c r="G27">
-        <v>142636</v>
+        <v>83475</v>
       </c>
       <c r="H27">
-        <v>620854</v>
+        <v>261678</v>
       </c>
       <c r="I27">
-        <v>33453</v>
+        <v>16167</v>
       </c>
       <c r="J27">
-        <v>82297</v>
+        <v>19448</v>
       </c>
       <c r="K27">
-        <v>3963</v>
+        <v>1287</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-178</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-616</v>
       </c>
       <c r="N27">
-        <v>42880</v>
+        <v>28021</v>
       </c>
       <c r="O27">
-        <v>335426</v>
+        <v>149424</v>
       </c>
       <c r="P27">
-        <v>101644</v>
+        <v>33023</v>
       </c>
       <c r="Q27">
-        <v>-1221</v>
+        <v>2284</v>
       </c>
       <c r="R27">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>367700</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>285428</v>
+        <v>112254</v>
       </c>
       <c r="U27">
-        <v>27520</v>
+        <v>40530</v>
       </c>
       <c r="V27">
-        <v>7438</v>
+        <v>4625</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>595</v>
+        <v>412</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-5311</v>
+        <v>-781</v>
       </c>
       <c r="AA27">
-        <v>6286</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>4060</v>
+        <v>3118</v>
       </c>
       <c r="D28">
-        <v>64830</v>
+        <v>26738</v>
       </c>
       <c r="E28">
-        <v>25649</v>
+        <v>10924</v>
       </c>
       <c r="F28">
-        <v>6370</v>
+        <v>5133</v>
       </c>
       <c r="G28">
-        <v>154942</v>
+        <v>78596</v>
       </c>
       <c r="H28">
-        <v>654451</v>
+        <v>269051</v>
       </c>
       <c r="I28">
-        <v>31502</v>
+        <v>16970</v>
       </c>
       <c r="J28">
-        <v>86206</v>
+        <v>20072</v>
       </c>
       <c r="K28">
-        <v>2135</v>
+        <v>1250</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-2644</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>119820</v>
+        <v>28602</v>
       </c>
       <c r="O28">
-        <v>358171</v>
+        <v>151346</v>
       </c>
       <c r="P28">
-        <v>103956</v>
+        <v>33595</v>
       </c>
       <c r="Q28">
-        <v>-2161</v>
+        <v>923</v>
       </c>
       <c r="R28">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>296280</v>
+        <v>117705</v>
       </c>
       <c r="U28">
-        <v>23946</v>
+        <v>41114</v>
       </c>
       <c r="V28">
-        <v>18295</v>
+        <v>2807</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>2015</v>
+        <v>812</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-18442</v>
+        <v>-1216</v>
       </c>
       <c r="AA28">
-        <v>4060</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>4262</v>
+        <v>4553</v>
       </c>
       <c r="D29">
-        <v>57191</v>
+        <v>26750</v>
       </c>
       <c r="E29">
-        <v>25877</v>
+        <v>11014</v>
       </c>
       <c r="F29">
-        <v>7180</v>
+        <v>7185</v>
       </c>
       <c r="G29">
-        <v>159826</v>
+        <v>79058</v>
       </c>
       <c r="H29">
-        <v>665590</v>
+        <v>276516</v>
       </c>
       <c r="I29">
-        <v>32158</v>
+        <v>17085</v>
       </c>
       <c r="J29">
-        <v>86469</v>
+        <v>21226</v>
       </c>
       <c r="K29">
-        <v>2013</v>
+        <v>1254</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>122628</v>
+        <v>29467</v>
       </c>
       <c r="O29">
-        <v>361497</v>
+        <v>154051</v>
       </c>
       <c r="P29">
-        <v>102270</v>
+        <v>34724</v>
       </c>
       <c r="Q29">
-        <v>500</v>
+        <v>133</v>
       </c>
       <c r="R29">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>304093</v>
+        <v>122465</v>
       </c>
       <c r="U29">
-        <v>25104</v>
+        <v>40584</v>
       </c>
       <c r="V29">
-        <v>8327</v>
+        <v>3919</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-2484</v>
+        <v>1075</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1590</v>
+        <v>-3930</v>
       </c>
       <c r="AA29">
-        <v>4262</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>4067</v>
+        <v>2947</v>
       </c>
       <c r="D30">
-        <v>59815</v>
+        <v>26684</v>
       </c>
       <c r="E30">
-        <v>26398</v>
+        <v>9986</v>
       </c>
       <c r="F30">
-        <v>6460</v>
+        <v>4778</v>
       </c>
       <c r="G30">
-        <v>169612</v>
+        <v>76734</v>
       </c>
       <c r="H30">
-        <v>681554</v>
+        <v>273160</v>
       </c>
       <c r="I30">
-        <v>33272</v>
+        <v>14321</v>
       </c>
       <c r="J30">
-        <v>86590</v>
+        <v>21682</v>
       </c>
       <c r="K30">
-        <v>1819</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,247 +3216,247 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>125656</v>
+        <v>27202</v>
       </c>
       <c r="O30">
-        <v>369702</v>
+        <v>149759</v>
       </c>
       <c r="P30">
-        <v>101490</v>
+        <v>33826</v>
       </c>
       <c r="Q30">
-        <v>16369</v>
+        <v>-2754</v>
       </c>
       <c r="R30">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="T30">
-        <v>311852</v>
+        <v>123401</v>
       </c>
       <c r="U30">
-        <v>39695</v>
+        <v>38881</v>
       </c>
       <c r="V30">
-        <v>10877</v>
+        <v>1199</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-1398</v>
+        <v>-933</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>9880</v>
+        <v>-1545</v>
       </c>
       <c r="AA30">
-        <v>4067</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>32551</v>
+        <v>940</v>
       </c>
       <c r="D31">
-        <v>58815</v>
+        <v>25060</v>
       </c>
       <c r="E31">
-        <v>25945</v>
+        <v>12236</v>
       </c>
       <c r="F31">
-        <v>5200</v>
+        <v>1780</v>
       </c>
       <c r="G31">
-        <v>167014</v>
+        <v>71074</v>
       </c>
       <c r="H31">
-        <v>702095</v>
+        <v>281047</v>
       </c>
       <c r="I31">
-        <v>35821</v>
+        <v>17107</v>
       </c>
       <c r="J31">
-        <v>96267</v>
+        <v>23370</v>
       </c>
       <c r="K31">
-        <v>6320</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-1844</v>
       </c>
       <c r="N31">
-        <v>44820</v>
+        <v>30655</v>
       </c>
       <c r="O31">
-        <v>350141</v>
+        <v>157401</v>
       </c>
       <c r="P31">
-        <v>102587</v>
+        <v>36177</v>
       </c>
       <c r="Q31">
-        <v>-11139</v>
+        <v>-8763</v>
       </c>
       <c r="R31">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>377291</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>351954</v>
+        <v>123646</v>
       </c>
       <c r="U31">
-        <v>31583</v>
+        <v>33289</v>
       </c>
       <c r="V31">
-        <v>8229</v>
+        <v>3353</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>469</v>
+        <v>1205</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-13100</v>
+        <v>-7830</v>
       </c>
       <c r="AA31">
-        <v>32551</v>
+        <v>940</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-1138</v>
+        <v>2880</v>
       </c>
       <c r="D32">
-        <v>58267</v>
+        <v>29847</v>
       </c>
       <c r="E32">
-        <v>24780</v>
+        <v>13360</v>
       </c>
       <c r="F32">
-        <v>-949</v>
+        <v>4807</v>
       </c>
       <c r="G32">
-        <v>170191</v>
+        <v>68503</v>
       </c>
       <c r="H32">
-        <v>702651</v>
+        <v>277792</v>
       </c>
       <c r="I32">
-        <v>36463</v>
+        <v>18459</v>
       </c>
       <c r="J32">
-        <v>83922</v>
+        <v>22630</v>
       </c>
       <c r="K32">
-        <v>4408</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-1929</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-5413</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>100638</v>
+        <v>30524</v>
       </c>
       <c r="O32">
-        <v>351599</v>
+        <v>155568</v>
       </c>
       <c r="P32">
-        <v>99085</v>
+        <v>36235</v>
       </c>
       <c r="Q32">
-        <v>26162</v>
+        <v>-4407</v>
       </c>
       <c r="R32">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>351052</v>
+        <v>122224</v>
       </c>
       <c r="U32">
-        <v>54109</v>
+        <v>29150</v>
       </c>
       <c r="V32">
-        <v>7556</v>
+        <v>1638</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-3794</v>
+        <v>51</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>25103</v>
+        <v>-3916</v>
       </c>
       <c r="AA32">
-        <v>-1138</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>12011</v>
+        <v>1057</v>
       </c>
       <c r="D33">
-        <v>62572</v>
+        <v>28222</v>
       </c>
       <c r="E33">
-        <v>25217</v>
+        <v>12965</v>
       </c>
       <c r="F33">
-        <v>15728</v>
+        <v>1848</v>
       </c>
       <c r="G33">
-        <v>172933</v>
+        <v>70840</v>
       </c>
       <c r="H33">
-        <v>711932</v>
+        <v>281729</v>
       </c>
       <c r="I33">
-        <v>37277</v>
+        <v>17907</v>
       </c>
       <c r="J33">
-        <v>82603</v>
+        <v>23063</v>
       </c>
       <c r="K33">
-        <v>5219</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>102771</v>
+        <v>30646</v>
       </c>
       <c r="O33">
-        <v>350174</v>
+        <v>157225</v>
       </c>
       <c r="P33">
-        <v>96773</v>
+        <v>37558</v>
       </c>
       <c r="Q33">
-        <v>6802</v>
+        <v>2210</v>
       </c>
       <c r="R33">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>361758</v>
+        <v>124504</v>
       </c>
       <c r="U33">
-        <v>61281</v>
+        <v>28430</v>
       </c>
       <c r="V33">
-        <v>8535</v>
+        <v>3437</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-1722</v>
+        <v>1500</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>3696</v>
+        <v>604</v>
       </c>
       <c r="AA33">
-        <v>12011</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>18540</v>
+        <v>117</v>
       </c>
       <c r="D34">
-        <v>63587</v>
+        <v>25297</v>
       </c>
       <c r="E34">
-        <v>25819</v>
+        <v>11690</v>
       </c>
       <c r="F34">
-        <v>23781</v>
+        <v>463</v>
       </c>
       <c r="G34">
-        <v>166951</v>
+        <v>62438</v>
       </c>
       <c r="H34">
-        <v>736459</v>
+        <v>267399</v>
       </c>
       <c r="I34">
-        <v>38367</v>
+        <v>18927</v>
       </c>
       <c r="J34">
-        <v>83353</v>
+        <v>21694</v>
       </c>
       <c r="K34">
-        <v>3517</v>
+        <v>1800</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,247 +3548,247 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>104925</v>
+        <v>50510</v>
       </c>
       <c r="O34">
-        <v>357040</v>
+        <v>153692</v>
       </c>
       <c r="P34">
-        <v>97640</v>
+        <v>36882</v>
       </c>
       <c r="Q34">
-        <v>-23075</v>
+        <v>-7830</v>
       </c>
       <c r="R34">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>246000</v>
       </c>
       <c r="T34">
-        <v>379419</v>
+        <v>113707</v>
       </c>
       <c r="U34">
-        <v>39803</v>
+        <v>24582</v>
       </c>
       <c r="V34">
-        <v>10464</v>
+        <v>2824</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-10</v>
+        <v>-470</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-28044</v>
+        <v>-8879</v>
       </c>
       <c r="AA34">
-        <v>18540</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-25392</v>
+        <v>-1534</v>
       </c>
       <c r="D35">
-        <v>63111</v>
+        <v>26250</v>
       </c>
       <c r="E35">
-        <v>27985</v>
+        <v>12772</v>
       </c>
       <c r="F35">
-        <v>-28539</v>
+        <v>-2204</v>
       </c>
       <c r="G35">
-        <v>166788</v>
+        <v>62272</v>
       </c>
       <c r="H35">
-        <v>707794</v>
+        <v>260542</v>
       </c>
       <c r="I35">
-        <v>37075</v>
+        <v>20128</v>
       </c>
       <c r="J35">
-        <v>93117</v>
+        <v>22160</v>
       </c>
       <c r="K35">
-        <v>4373</v>
+        <v>1900</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-539</v>
       </c>
       <c r="N35">
-        <v>44883</v>
+        <v>41091</v>
       </c>
       <c r="O35">
-        <v>355294</v>
+        <v>153623</v>
       </c>
       <c r="P35">
-        <v>97490</v>
+        <v>37815</v>
       </c>
       <c r="Q35">
-        <v>-11290</v>
+        <v>12</v>
       </c>
       <c r="R35">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>389000</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>352500</v>
+        <v>106919</v>
       </c>
       <c r="U35">
-        <v>30361</v>
+        <v>23798</v>
       </c>
       <c r="V35">
-        <v>10845</v>
+        <v>4642</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-286</v>
+        <v>925</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-14288</v>
+        <v>-4611</v>
       </c>
       <c r="AA35">
-        <v>-25392</v>
+        <v>-1534</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>21661</v>
+        <v>3295</v>
       </c>
       <c r="D36">
-        <v>60678</v>
+        <v>29634</v>
       </c>
       <c r="E36">
-        <v>29464</v>
+        <v>12614</v>
       </c>
       <c r="F36">
-        <v>28470</v>
+        <v>5141</v>
       </c>
       <c r="G36">
-        <v>171348</v>
+        <v>60759</v>
       </c>
       <c r="H36">
-        <v>738724</v>
+        <v>275646</v>
       </c>
       <c r="I36">
-        <v>33698</v>
+        <v>19901</v>
       </c>
       <c r="J36">
-        <v>93283</v>
+        <v>22087</v>
       </c>
       <c r="K36">
-        <v>3910</v>
+        <v>2000</v>
       </c>
       <c r="L36">
-        <v>-503</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-4242</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>96241</v>
+        <v>37855</v>
       </c>
       <c r="O36">
-        <v>366133</v>
+        <v>156809</v>
       </c>
       <c r="P36">
-        <v>103203</v>
+        <v>38784</v>
       </c>
       <c r="Q36">
-        <v>-4287</v>
+        <v>-1040</v>
       </c>
       <c r="R36">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>372591</v>
+        <v>118837</v>
       </c>
       <c r="U36">
-        <v>26139</v>
+        <v>22314</v>
       </c>
       <c r="V36">
-        <v>7577</v>
+        <v>2855</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-1678</v>
+        <v>151</v>
       </c>
       <c r="Y36">
-        <v>6010</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-6934</v>
+        <v>-3540</v>
       </c>
       <c r="AA36">
-        <v>21661</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>14073</v>
+        <v>3238</v>
       </c>
       <c r="D37">
-        <v>63598</v>
+        <v>29819</v>
       </c>
       <c r="E37">
-        <v>29889</v>
+        <v>12870</v>
       </c>
       <c r="F37">
-        <v>18627</v>
+        <v>5174</v>
       </c>
       <c r="G37">
-        <v>180413</v>
+        <v>62952</v>
       </c>
       <c r="H37">
-        <v>760108</v>
+        <v>292010</v>
       </c>
       <c r="I37">
-        <v>34534</v>
+        <v>20590</v>
       </c>
       <c r="J37">
-        <v>95646</v>
+        <v>21579</v>
       </c>
       <c r="K37">
-        <v>4261</v>
+        <v>1800</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>100007</v>
+        <v>36057</v>
       </c>
       <c r="O37">
-        <v>373717</v>
+        <v>161328</v>
       </c>
       <c r="P37">
-        <v>105841</v>
+        <v>38021</v>
       </c>
       <c r="Q37">
-        <v>18578</v>
+        <v>2408</v>
       </c>
       <c r="R37">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>386391</v>
+        <v>130682</v>
       </c>
       <c r="U37">
-        <v>44634</v>
+        <v>24584</v>
       </c>
       <c r="V37">
-        <v>9185</v>
+        <v>4529</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>2089</v>
+        <v>-689</v>
       </c>
       <c r="Y37">
-        <v>5934</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>11346</v>
+        <v>-709</v>
       </c>
       <c r="AA37">
-        <v>14073</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>16524</v>
+        <v>3056</v>
       </c>
       <c r="D38">
-        <v>64972</v>
+        <v>29627</v>
       </c>
       <c r="E38">
-        <v>29785</v>
+        <v>11870</v>
       </c>
       <c r="F38">
-        <v>20830</v>
+        <v>4806</v>
       </c>
       <c r="G38">
-        <v>187031</v>
+        <v>65940</v>
       </c>
       <c r="H38">
-        <v>788482</v>
+        <v>297119</v>
       </c>
       <c r="I38">
-        <v>35241</v>
+        <v>19241</v>
       </c>
       <c r="J38">
-        <v>97695</v>
+        <v>22533</v>
       </c>
       <c r="K38">
-        <v>4499</v>
+        <v>1607</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,247 +3880,247 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>101461</v>
+        <v>33768</v>
       </c>
       <c r="O38">
-        <v>386924</v>
+        <v>161334</v>
       </c>
       <c r="P38">
-        <v>108046</v>
+        <v>37909</v>
       </c>
       <c r="Q38">
-        <v>30189</v>
+        <v>3639</v>
       </c>
       <c r="R38">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>222000</v>
       </c>
       <c r="T38">
-        <v>401558</v>
+        <v>135785</v>
       </c>
       <c r="U38">
-        <v>74776</v>
+        <v>28652</v>
       </c>
       <c r="V38">
-        <v>9848</v>
+        <v>3820</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>2098</v>
+        <v>-154</v>
       </c>
       <c r="Y38">
-        <v>5852</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>23780</v>
+        <v>1622</v>
       </c>
       <c r="AA38">
-        <v>16524</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>29159</v>
+        <v>3633</v>
       </c>
       <c r="D39">
-        <v>65635</v>
+        <v>30318</v>
       </c>
       <c r="E39">
-        <v>28265</v>
+        <v>14256</v>
       </c>
       <c r="F39">
-        <v>37554</v>
+        <v>5512</v>
       </c>
       <c r="G39">
-        <v>184286</v>
+        <v>65982</v>
       </c>
       <c r="H39">
-        <v>817729</v>
+        <v>356320</v>
       </c>
       <c r="I39">
-        <v>36361</v>
+        <v>26729</v>
       </c>
       <c r="J39">
-        <v>88262</v>
+        <v>41515</v>
       </c>
       <c r="K39">
-        <v>4686</v>
+        <v>1423</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-1732</v>
       </c>
       <c r="N39">
-        <v>54861</v>
+        <v>72959</v>
       </c>
       <c r="O39">
-        <v>389166</v>
+        <v>204396</v>
       </c>
       <c r="P39">
-        <v>109250</v>
+        <v>57627</v>
       </c>
       <c r="Q39">
-        <v>-10659</v>
+        <v>-4888</v>
       </c>
       <c r="R39">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>391500</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>428563</v>
+        <v>151924</v>
       </c>
       <c r="U39">
-        <v>64175</v>
+        <v>24476</v>
       </c>
       <c r="V39">
-        <v>12077</v>
+        <v>3313</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-1779</v>
+        <v>7194</v>
       </c>
       <c r="Y39">
-        <v>4508</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-14925</v>
+        <v>828</v>
       </c>
       <c r="AA39">
-        <v>29159</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-49746</v>
+        <v>1968</v>
       </c>
       <c r="D40">
-        <v>61265</v>
+        <v>31727</v>
       </c>
       <c r="E40">
-        <v>29492</v>
+        <v>13791</v>
       </c>
       <c r="F40">
-        <v>-62325</v>
+        <v>3400</v>
       </c>
       <c r="G40">
-        <v>196028</v>
+        <v>68087</v>
       </c>
       <c r="H40">
-        <v>760448</v>
+        <v>349187</v>
       </c>
       <c r="I40">
-        <v>39428</v>
+        <v>26563</v>
       </c>
       <c r="J40">
-        <v>100678</v>
+        <v>41496</v>
       </c>
       <c r="K40">
-        <v>3555</v>
+        <v>1335</v>
       </c>
       <c r="L40">
-        <v>-1133</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-3250</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>98101</v>
+        <v>71064</v>
       </c>
       <c r="O40">
-        <v>385213</v>
+        <v>201673</v>
       </c>
       <c r="P40">
-        <v>104233</v>
+        <v>57970</v>
       </c>
       <c r="Q40">
-        <v>-21536</v>
+        <v>2283</v>
       </c>
       <c r="R40">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>375235</v>
+        <v>147514</v>
       </c>
       <c r="U40">
-        <v>42640</v>
+        <v>27150</v>
       </c>
       <c r="V40">
-        <v>6798</v>
+        <v>3547</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-346</v>
+        <v>387</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-24366</v>
+        <v>567</v>
       </c>
       <c r="AA40">
-        <v>-49746</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>26295</v>
+        <v>2989</v>
       </c>
       <c r="D41">
-        <v>56840</v>
+        <v>35816</v>
       </c>
       <c r="E41">
-        <v>28862</v>
+        <v>15105</v>
       </c>
       <c r="F41">
-        <v>47302</v>
+        <v>5026</v>
       </c>
       <c r="G41">
-        <v>203361</v>
+        <v>75435</v>
       </c>
       <c r="H41">
-        <v>788133</v>
+        <v>363979</v>
       </c>
       <c r="I41">
-        <v>40494</v>
+        <v>27550</v>
       </c>
       <c r="J41">
-        <v>103531</v>
+        <v>42752</v>
       </c>
       <c r="K41">
-        <v>3158</v>
+        <v>1364</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,129 +4129,3449 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>106658</v>
+        <v>74387</v>
       </c>
       <c r="O41">
-        <v>390880</v>
+        <v>209382</v>
       </c>
       <c r="P41">
-        <v>106689</v>
+        <v>58663</v>
       </c>
       <c r="Q41">
-        <v>-6509</v>
+        <v>6508</v>
       </c>
       <c r="R41">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>397253</v>
+        <v>154597</v>
       </c>
       <c r="U41">
-        <v>36074</v>
+        <v>33418</v>
       </c>
       <c r="V41">
-        <v>10668</v>
+        <v>6971</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-2474</v>
+        <v>660</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-10749</v>
+        <v>733</v>
       </c>
       <c r="AA41">
-        <v>26295</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44104</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>4377</v>
+      </c>
+      <c r="D42">
+        <v>36239</v>
+      </c>
+      <c r="E42">
+        <v>18182</v>
+      </c>
+      <c r="F42">
+        <v>6968</v>
+      </c>
+      <c r="G42">
+        <v>82045</v>
+      </c>
+      <c r="H42">
+        <v>372229</v>
+      </c>
+      <c r="I42">
+        <v>25908</v>
+      </c>
+      <c r="J42">
+        <v>42415</v>
+      </c>
+      <c r="K42">
+        <v>1682</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>38544</v>
+      </c>
+      <c r="O42">
+        <v>209295</v>
+      </c>
+      <c r="P42">
+        <v>58574</v>
+      </c>
+      <c r="Q42">
+        <v>3766</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>260000</v>
+      </c>
+      <c r="T42">
+        <v>162934</v>
+      </c>
+      <c r="U42">
+        <v>37324</v>
+      </c>
+      <c r="V42">
+        <v>4064</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-116</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1626</v>
+      </c>
+      <c r="AA42">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1511</v>
+      </c>
+      <c r="D43">
+        <v>34127</v>
+      </c>
+      <c r="E43">
+        <v>16617</v>
+      </c>
+      <c r="F43">
+        <v>2726</v>
+      </c>
+      <c r="G43">
+        <v>83865</v>
+      </c>
+      <c r="H43">
+        <v>376496</v>
+      </c>
+      <c r="I43">
+        <v>27804</v>
+      </c>
+      <c r="J43">
+        <v>40456</v>
+      </c>
+      <c r="K43">
+        <v>1680</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-4009</v>
+      </c>
+      <c r="N43">
+        <v>76547</v>
+      </c>
+      <c r="O43">
+        <v>212231</v>
+      </c>
+      <c r="P43">
+        <v>56546</v>
+      </c>
+      <c r="Q43">
+        <v>2951</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>164265</v>
+      </c>
+      <c r="U43">
+        <v>40558</v>
+      </c>
+      <c r="V43">
+        <v>3502</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-3559</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>4100</v>
+      </c>
+      <c r="AA43">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>3417</v>
+      </c>
+      <c r="D44">
+        <v>36985</v>
+      </c>
+      <c r="E44">
+        <v>16435</v>
+      </c>
+      <c r="F44">
+        <v>5762</v>
+      </c>
+      <c r="G44">
+        <v>89965</v>
+      </c>
+      <c r="H44">
+        <v>382696</v>
+      </c>
+      <c r="I44">
+        <v>28111</v>
+      </c>
+      <c r="J44">
+        <v>40905</v>
+      </c>
+      <c r="K44">
+        <v>1532</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>77145</v>
+      </c>
+      <c r="O44">
+        <v>215912</v>
+      </c>
+      <c r="P44">
+        <v>56717</v>
+      </c>
+      <c r="Q44">
+        <v>6713</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>166784</v>
+      </c>
+      <c r="U44">
+        <v>45997</v>
+      </c>
+      <c r="V44">
+        <v>6481</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-147</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1647</v>
+      </c>
+      <c r="AA44">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>2278</v>
+      </c>
+      <c r="D45">
+        <v>33647</v>
+      </c>
+      <c r="E45">
+        <v>16917</v>
+      </c>
+      <c r="F45">
+        <v>3870</v>
+      </c>
+      <c r="G45">
+        <v>77957</v>
+      </c>
+      <c r="H45">
+        <v>385494</v>
+      </c>
+      <c r="I45">
+        <v>29620</v>
+      </c>
+      <c r="J45">
+        <v>44867</v>
+      </c>
+      <c r="K45">
+        <v>1525</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>80337</v>
+      </c>
+      <c r="O45">
+        <v>221613</v>
+      </c>
+      <c r="P45">
+        <v>60484</v>
+      </c>
+      <c r="Q45">
+        <v>-13115</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>163881</v>
+      </c>
+      <c r="U45">
+        <v>33552</v>
+      </c>
+      <c r="V45">
+        <v>5999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1948</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-10959</v>
+      </c>
+      <c r="AA45">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>3048</v>
+      </c>
+      <c r="D46">
+        <v>37655</v>
+      </c>
+      <c r="E46">
+        <v>16059</v>
+      </c>
+      <c r="F46">
+        <v>4967</v>
+      </c>
+      <c r="G46">
+        <v>79547</v>
+      </c>
+      <c r="H46">
+        <v>392647</v>
+      </c>
+      <c r="I46">
+        <v>29415</v>
+      </c>
+      <c r="J46">
+        <v>44858</v>
+      </c>
+      <c r="K46">
+        <v>1490</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>43303</v>
+      </c>
+      <c r="O46">
+        <v>223686</v>
+      </c>
+      <c r="P46">
+        <v>60384</v>
+      </c>
+      <c r="Q46">
+        <v>2523</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>271000</v>
+      </c>
+      <c r="T46">
+        <v>168961</v>
+      </c>
+      <c r="U46">
+        <v>35759</v>
+      </c>
+      <c r="V46">
+        <v>4494</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-459</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1578</v>
+      </c>
+      <c r="AA46">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>3245</v>
+      </c>
+      <c r="D47">
+        <v>38253</v>
+      </c>
+      <c r="E47">
+        <v>18467</v>
+      </c>
+      <c r="F47">
+        <v>5462</v>
+      </c>
+      <c r="G47">
+        <v>82339</v>
+      </c>
+      <c r="H47">
+        <v>411362</v>
+      </c>
+      <c r="I47">
+        <v>30540</v>
+      </c>
+      <c r="J47">
+        <v>46754</v>
+      </c>
+      <c r="K47">
+        <v>1404</v>
+      </c>
+      <c r="L47">
+        <v>-904</v>
+      </c>
+      <c r="M47">
+        <v>-2284</v>
+      </c>
+      <c r="N47">
+        <v>85978</v>
+      </c>
+      <c r="O47">
+        <v>231093</v>
+      </c>
+      <c r="P47">
+        <v>61835</v>
+      </c>
+      <c r="Q47">
+        <v>527</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>180269</v>
+      </c>
+      <c r="U47">
+        <v>36252</v>
+      </c>
+      <c r="V47">
+        <v>4650</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1343</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-2309</v>
+      </c>
+      <c r="AA47">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>3108</v>
+      </c>
+      <c r="D48">
+        <v>38421</v>
+      </c>
+      <c r="E48">
+        <v>18298</v>
+      </c>
+      <c r="F48">
+        <v>5160</v>
+      </c>
+      <c r="G48">
+        <v>85300</v>
+      </c>
+      <c r="H48">
+        <v>411356</v>
+      </c>
+      <c r="I48">
+        <v>30315</v>
+      </c>
+      <c r="J48">
+        <v>46287</v>
+      </c>
+      <c r="K48">
+        <v>1392</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>86091</v>
+      </c>
+      <c r="O48">
+        <v>229641</v>
+      </c>
+      <c r="P48">
+        <v>61132</v>
+      </c>
+      <c r="Q48">
+        <v>2835</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>181715</v>
+      </c>
+      <c r="U48">
+        <v>39410</v>
+      </c>
+      <c r="V48">
+        <v>4859</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-684</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>926</v>
+      </c>
+      <c r="AA48">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>3920</v>
+      </c>
+      <c r="D49">
+        <v>40133</v>
+      </c>
+      <c r="E49">
+        <v>18621</v>
+      </c>
+      <c r="F49">
+        <v>6480</v>
+      </c>
+      <c r="G49">
+        <v>92152</v>
+      </c>
+      <c r="H49">
+        <v>424115</v>
+      </c>
+      <c r="I49">
+        <v>31672</v>
+      </c>
+      <c r="J49">
+        <v>47912</v>
+      </c>
+      <c r="K49">
+        <v>1225</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>88939</v>
+      </c>
+      <c r="O49">
+        <v>235041</v>
+      </c>
+      <c r="P49">
+        <v>62509</v>
+      </c>
+      <c r="Q49">
+        <v>7115</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>189074</v>
+      </c>
+      <c r="U49">
+        <v>45939</v>
+      </c>
+      <c r="V49">
+        <v>6651</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1020</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>2504</v>
+      </c>
+      <c r="AA49">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>4551</v>
+      </c>
+      <c r="D50">
+        <v>44194</v>
+      </c>
+      <c r="E50">
+        <v>18828</v>
+      </c>
+      <c r="F50">
+        <v>7276</v>
+      </c>
+      <c r="G50">
+        <v>91449</v>
+      </c>
+      <c r="H50">
+        <v>427452</v>
+      </c>
+      <c r="I50">
+        <v>32215</v>
+      </c>
+      <c r="J50">
+        <v>48275</v>
+      </c>
+      <c r="K50">
+        <v>1416</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>43508</v>
+      </c>
+      <c r="O50">
+        <v>235864</v>
+      </c>
+      <c r="P50">
+        <v>62736</v>
+      </c>
+      <c r="Q50">
+        <v>-784</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>288500</v>
+      </c>
+      <c r="T50">
+        <v>191588</v>
+      </c>
+      <c r="U50">
+        <v>44928</v>
+      </c>
+      <c r="V50">
+        <v>4790</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-2485</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>387</v>
+      </c>
+      <c r="AA50">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>4892</v>
+      </c>
+      <c r="D51">
+        <v>43362</v>
+      </c>
+      <c r="E51">
+        <v>20498</v>
+      </c>
+      <c r="F51">
+        <v>7835</v>
+      </c>
+      <c r="G51">
+        <v>95109</v>
+      </c>
+      <c r="H51">
+        <v>442302</v>
+      </c>
+      <c r="I51">
+        <v>33160</v>
+      </c>
+      <c r="J51">
+        <v>48935</v>
+      </c>
+      <c r="K51">
+        <v>1354</v>
+      </c>
+      <c r="L51">
+        <v>-496</v>
+      </c>
+      <c r="M51">
+        <v>-3448</v>
+      </c>
+      <c r="N51">
+        <v>92059</v>
+      </c>
+      <c r="O51">
+        <v>240196</v>
+      </c>
+      <c r="P51">
+        <v>63249</v>
+      </c>
+      <c r="Q51">
+        <v>2097</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>202106</v>
+      </c>
+      <c r="U51">
+        <v>46987</v>
+      </c>
+      <c r="V51">
+        <v>6055</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>57</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-444</v>
+      </c>
+      <c r="AA51">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>4541</v>
+      </c>
+      <c r="D52">
+        <v>44201</v>
+      </c>
+      <c r="E52">
+        <v>19005</v>
+      </c>
+      <c r="F52">
+        <v>7441</v>
+      </c>
+      <c r="G52">
+        <v>80450</v>
+      </c>
+      <c r="H52">
+        <v>446563</v>
+      </c>
+      <c r="I52">
+        <v>34286</v>
+      </c>
+      <c r="J52">
+        <v>49841</v>
+      </c>
+      <c r="K52">
+        <v>1281</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>92600</v>
+      </c>
+      <c r="O52">
+        <v>241575</v>
+      </c>
+      <c r="P52">
+        <v>63953</v>
+      </c>
+      <c r="Q52">
+        <v>-13394</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>204988</v>
+      </c>
+      <c r="U52">
+        <v>33780</v>
+      </c>
+      <c r="V52">
+        <v>6856</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-1762</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-14941</v>
+      </c>
+      <c r="AA52">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>5053</v>
+      </c>
+      <c r="D53">
+        <v>44827</v>
+      </c>
+      <c r="E53">
+        <v>24064</v>
+      </c>
+      <c r="F53">
+        <v>7952</v>
+      </c>
+      <c r="G53">
+        <v>92015</v>
+      </c>
+      <c r="H53">
+        <v>458081</v>
+      </c>
+      <c r="I53">
+        <v>35112</v>
+      </c>
+      <c r="J53">
+        <v>51976</v>
+      </c>
+      <c r="K53">
+        <v>1063</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>94150</v>
+      </c>
+      <c r="O53">
+        <v>246650</v>
+      </c>
+      <c r="P53">
+        <v>65749</v>
+      </c>
+      <c r="Q53">
+        <v>6384</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>211431</v>
+      </c>
+      <c r="U53">
+        <v>40028</v>
+      </c>
+      <c r="V53">
+        <v>7826</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1492</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-115</v>
+      </c>
+      <c r="AA53">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>4990</v>
+      </c>
+      <c r="D54">
+        <v>45695</v>
+      </c>
+      <c r="E54">
+        <v>17225</v>
+      </c>
+      <c r="F54">
+        <v>7828</v>
+      </c>
+      <c r="G54">
+        <v>91239</v>
+      </c>
+      <c r="H54">
+        <v>484931</v>
+      </c>
+      <c r="I54">
+        <v>33663</v>
+      </c>
+      <c r="J54">
+        <v>58146</v>
+      </c>
+      <c r="K54">
+        <v>949</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>41747</v>
+      </c>
+      <c r="O54">
+        <v>260446</v>
+      </c>
+      <c r="P54">
+        <v>72224</v>
+      </c>
+      <c r="Q54">
+        <v>6107</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>302000</v>
+      </c>
+      <c r="T54">
+        <v>224485</v>
+      </c>
+      <c r="U54">
+        <v>45833</v>
+      </c>
+      <c r="V54">
+        <v>6967</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1174</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>6529</v>
+      </c>
+      <c r="AA54">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>4705</v>
+      </c>
+      <c r="D55">
+        <v>44322</v>
+      </c>
+      <c r="E55">
+        <v>19521</v>
+      </c>
+      <c r="F55">
+        <v>7261</v>
+      </c>
+      <c r="G55">
+        <v>94467</v>
+      </c>
+      <c r="H55">
+        <v>494944</v>
+      </c>
+      <c r="I55">
+        <v>35156</v>
+      </c>
+      <c r="J55">
+        <v>59221</v>
+      </c>
+      <c r="K55">
+        <v>978</v>
+      </c>
+      <c r="L55">
+        <v>-4</v>
+      </c>
+      <c r="M55">
+        <v>-1719</v>
+      </c>
+      <c r="N55">
+        <v>102751</v>
+      </c>
+      <c r="O55">
+        <v>264655</v>
+      </c>
+      <c r="P55">
+        <v>73223</v>
+      </c>
+      <c r="Q55">
+        <v>762</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>230289</v>
+      </c>
+      <c r="U55">
+        <v>46040</v>
+      </c>
+      <c r="V55">
+        <v>4928</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-311</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-1018</v>
+      </c>
+      <c r="AA55">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>6395</v>
+      </c>
+      <c r="D56">
+        <v>47396</v>
+      </c>
+      <c r="E56">
+        <v>19764</v>
+      </c>
+      <c r="F56">
+        <v>9623</v>
+      </c>
+      <c r="G56">
+        <v>101258</v>
+      </c>
+      <c r="H56">
+        <v>504379</v>
+      </c>
+      <c r="I56">
+        <v>36183</v>
+      </c>
+      <c r="J56">
+        <v>60360</v>
+      </c>
+      <c r="K56">
+        <v>890</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>104084</v>
+      </c>
+      <c r="O56">
+        <v>267619</v>
+      </c>
+      <c r="P56">
+        <v>74087</v>
+      </c>
+      <c r="Q56">
+        <v>6507</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>236760</v>
+      </c>
+      <c r="U56">
+        <v>52592</v>
+      </c>
+      <c r="V56">
+        <v>6905</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>550</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>2184</v>
+      </c>
+      <c r="AA56">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>4617</v>
+      </c>
+      <c r="D57">
+        <v>51575</v>
+      </c>
+      <c r="E57">
+        <v>20796</v>
+      </c>
+      <c r="F57">
+        <v>7456</v>
+      </c>
+      <c r="G57">
+        <v>109200</v>
+      </c>
+      <c r="H57">
+        <v>517363</v>
+      </c>
+      <c r="I57">
+        <v>38392</v>
+      </c>
+      <c r="J57">
+        <v>61205</v>
+      </c>
+      <c r="K57">
+        <v>817</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>106529</v>
+      </c>
+      <c r="O57">
+        <v>277061</v>
+      </c>
+      <c r="P57">
+        <v>74812</v>
+      </c>
+      <c r="Q57">
+        <v>6925</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>240302</v>
+      </c>
+      <c r="U57">
+        <v>59785</v>
+      </c>
+      <c r="V57">
+        <v>12324</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>937</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-1889</v>
+      </c>
+      <c r="AA57">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>4155</v>
+      </c>
+      <c r="D58">
+        <v>47805</v>
+      </c>
+      <c r="E58">
+        <v>18736</v>
+      </c>
+      <c r="F58">
+        <v>6562</v>
+      </c>
+      <c r="G58">
+        <v>108031</v>
+      </c>
+      <c r="H58">
+        <v>525867</v>
+      </c>
+      <c r="I58">
+        <v>29005</v>
+      </c>
+      <c r="J58">
+        <v>66321</v>
+      </c>
+      <c r="K58">
+        <v>839</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>35504</v>
+      </c>
+      <c r="O58">
+        <v>282840</v>
+      </c>
+      <c r="P58">
+        <v>79890</v>
+      </c>
+      <c r="Q58">
+        <v>889</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>316000</v>
+      </c>
+      <c r="T58">
+        <v>243027</v>
+      </c>
+      <c r="U58">
+        <v>60975</v>
+      </c>
+      <c r="V58">
+        <v>7853</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1555</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>323</v>
+      </c>
+      <c r="AA58">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>5164</v>
+      </c>
+      <c r="D59">
+        <v>48547</v>
+      </c>
+      <c r="E59">
+        <v>20842</v>
+      </c>
+      <c r="F59">
+        <v>8423</v>
+      </c>
+      <c r="G59">
+        <v>111979</v>
+      </c>
+      <c r="H59">
+        <v>531076</v>
+      </c>
+      <c r="I59">
+        <v>38215</v>
+      </c>
+      <c r="J59">
+        <v>69215</v>
+      </c>
+      <c r="K59">
+        <v>1918</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-3431</v>
+      </c>
+      <c r="N59">
+        <v>106831</v>
+      </c>
+      <c r="O59">
+        <v>286237</v>
+      </c>
+      <c r="P59">
+        <v>83795</v>
+      </c>
+      <c r="Q59">
+        <v>442</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>244839</v>
+      </c>
+      <c r="U59">
+        <v>61720</v>
+      </c>
+      <c r="V59">
+        <v>5963</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>2818</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-787</v>
+      </c>
+      <c r="AA59">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>4013</v>
+      </c>
+      <c r="D60">
+        <v>51006</v>
+      </c>
+      <c r="E60">
+        <v>21285</v>
+      </c>
+      <c r="F60">
+        <v>6716</v>
+      </c>
+      <c r="G60">
+        <v>115973</v>
+      </c>
+      <c r="H60">
+        <v>540774</v>
+      </c>
+      <c r="I60">
+        <v>39723</v>
+      </c>
+      <c r="J60">
+        <v>69913</v>
+      </c>
+      <c r="K60">
+        <v>2102</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>110066</v>
+      </c>
+      <c r="O60">
+        <v>291572</v>
+      </c>
+      <c r="P60">
+        <v>84578</v>
+      </c>
+      <c r="Q60">
+        <v>2876</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>249202</v>
+      </c>
+      <c r="U60">
+        <v>64254</v>
+      </c>
+      <c r="V60">
+        <v>7980</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>378</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-1851</v>
+      </c>
+      <c r="AA60">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>9428</v>
+      </c>
+      <c r="D61">
+        <v>50723</v>
+      </c>
+      <c r="E61">
+        <v>21111</v>
+      </c>
+      <c r="F61">
+        <v>14832</v>
+      </c>
+      <c r="G61">
+        <v>115534</v>
+      </c>
+      <c r="H61">
+        <v>545468</v>
+      </c>
+      <c r="I61">
+        <v>39520</v>
+      </c>
+      <c r="J61">
+        <v>70519</v>
+      </c>
+      <c r="K61">
+        <v>1909</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>110346</v>
+      </c>
+      <c r="O61">
+        <v>294147</v>
+      </c>
+      <c r="P61">
+        <v>84911</v>
+      </c>
+      <c r="Q61">
+        <v>-327</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>251321</v>
+      </c>
+      <c r="U61">
+        <v>60857</v>
+      </c>
+      <c r="V61">
+        <v>10212</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>602</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-5827</v>
+      </c>
+      <c r="AA61">
+        <v>9428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>5478</v>
+      </c>
+      <c r="D62">
+        <v>51294</v>
+      </c>
+      <c r="E62">
+        <v>19996</v>
+      </c>
+      <c r="F62">
+        <v>8210</v>
+      </c>
+      <c r="G62">
+        <v>119824</v>
+      </c>
+      <c r="H62">
+        <v>552257</v>
+      </c>
+      <c r="I62">
+        <v>29636</v>
+      </c>
+      <c r="J62">
+        <v>70349</v>
+      </c>
+      <c r="K62">
+        <v>1989</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>37023</v>
+      </c>
+      <c r="O62">
+        <v>293630</v>
+      </c>
+      <c r="P62">
+        <v>84289</v>
+      </c>
+      <c r="Q62">
+        <v>4137</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>361270</v>
+      </c>
+      <c r="T62">
+        <v>258627</v>
+      </c>
+      <c r="U62">
+        <v>60049</v>
+      </c>
+      <c r="V62">
+        <v>7336</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>5</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>970</v>
+      </c>
+      <c r="AA62">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>5589</v>
+      </c>
+      <c r="D63">
+        <v>50313</v>
+      </c>
+      <c r="E63">
+        <v>23667</v>
+      </c>
+      <c r="F63">
+        <v>7288</v>
+      </c>
+      <c r="G63">
+        <v>114408</v>
+      </c>
+      <c r="H63">
+        <v>586315</v>
+      </c>
+      <c r="I63">
+        <v>30966</v>
+      </c>
+      <c r="J63">
+        <v>83618</v>
+      </c>
+      <c r="K63">
+        <v>2565</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-991</v>
+      </c>
+      <c r="N63">
+        <v>110983</v>
+      </c>
+      <c r="O63">
+        <v>324478</v>
+      </c>
+      <c r="P63">
+        <v>101539</v>
+      </c>
+      <c r="Q63">
+        <v>-24786</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>261837</v>
+      </c>
+      <c r="U63">
+        <v>56279</v>
+      </c>
+      <c r="V63">
+        <v>7454</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>11613</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-10347</v>
+      </c>
+      <c r="AA63">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>5001</v>
+      </c>
+      <c r="D64">
+        <v>53611</v>
+      </c>
+      <c r="E64">
+        <v>23689</v>
+      </c>
+      <c r="F64">
+        <v>7790</v>
+      </c>
+      <c r="G64">
+        <v>128758</v>
+      </c>
+      <c r="H64">
+        <v>592816</v>
+      </c>
+      <c r="I64">
+        <v>31866</v>
+      </c>
+      <c r="J64">
+        <v>83990</v>
+      </c>
+      <c r="K64">
+        <v>2172</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>112591</v>
+      </c>
+      <c r="O64">
+        <v>326558</v>
+      </c>
+      <c r="P64">
+        <v>101413</v>
+      </c>
+      <c r="Q64">
+        <v>1549</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>266258</v>
+      </c>
+      <c r="U64">
+        <v>64824</v>
+      </c>
+      <c r="V64">
+        <v>7810</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>140</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-2914</v>
+      </c>
+      <c r="AA64">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>7198</v>
+      </c>
+      <c r="D65">
+        <v>55693</v>
+      </c>
+      <c r="E65">
+        <v>24062</v>
+      </c>
+      <c r="F65">
+        <v>11240</v>
+      </c>
+      <c r="G65">
+        <v>141460</v>
+      </c>
+      <c r="H65">
+        <v>604038</v>
+      </c>
+      <c r="I65">
+        <v>33818</v>
+      </c>
+      <c r="J65">
+        <v>84306</v>
+      </c>
+      <c r="K65">
+        <v>2019</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>115194</v>
+      </c>
+      <c r="O65">
+        <v>331423</v>
+      </c>
+      <c r="P65">
+        <v>101798</v>
+      </c>
+      <c r="Q65">
+        <v>-14655</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>272615</v>
+      </c>
+      <c r="U65">
+        <v>72162</v>
+      </c>
+      <c r="V65">
+        <v>9833</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>443</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-21106</v>
+      </c>
+      <c r="AA65">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>6286</v>
+      </c>
+      <c r="D66">
+        <v>56434</v>
+      </c>
+      <c r="E66">
+        <v>23759</v>
+      </c>
+      <c r="F66">
+        <v>9513</v>
+      </c>
+      <c r="G66">
+        <v>142636</v>
+      </c>
+      <c r="H66">
+        <v>620854</v>
+      </c>
+      <c r="I66">
+        <v>33453</v>
+      </c>
+      <c r="J66">
+        <v>82297</v>
+      </c>
+      <c r="K66">
+        <v>3963</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>42880</v>
+      </c>
+      <c r="O66">
+        <v>335426</v>
+      </c>
+      <c r="P66">
+        <v>101644</v>
+      </c>
+      <c r="Q66">
+        <v>-1221</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>367700</v>
+      </c>
+      <c r="T66">
+        <v>285428</v>
+      </c>
+      <c r="U66">
+        <v>27520</v>
+      </c>
+      <c r="V66">
+        <v>7438</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>595</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-5311</v>
+      </c>
+      <c r="AA66">
+        <v>6286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>4060</v>
+      </c>
+      <c r="D67">
+        <v>64830</v>
+      </c>
+      <c r="E67">
+        <v>25649</v>
+      </c>
+      <c r="F67">
+        <v>6370</v>
+      </c>
+      <c r="G67">
+        <v>154942</v>
+      </c>
+      <c r="H67">
+        <v>654451</v>
+      </c>
+      <c r="I67">
+        <v>31502</v>
+      </c>
+      <c r="J67">
+        <v>86206</v>
+      </c>
+      <c r="K67">
+        <v>2135</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-2644</v>
+      </c>
+      <c r="N67">
+        <v>119820</v>
+      </c>
+      <c r="O67">
+        <v>358171</v>
+      </c>
+      <c r="P67">
+        <v>103956</v>
+      </c>
+      <c r="Q67">
+        <v>-2161</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>296280</v>
+      </c>
+      <c r="U67">
+        <v>23946</v>
+      </c>
+      <c r="V67">
+        <v>18295</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>2015</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-18442</v>
+      </c>
+      <c r="AA67">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>4262</v>
+      </c>
+      <c r="D68">
+        <v>57191</v>
+      </c>
+      <c r="E68">
+        <v>25877</v>
+      </c>
+      <c r="F68">
+        <v>7180</v>
+      </c>
+      <c r="G68">
+        <v>159826</v>
+      </c>
+      <c r="H68">
+        <v>665590</v>
+      </c>
+      <c r="I68">
+        <v>32158</v>
+      </c>
+      <c r="J68">
+        <v>86469</v>
+      </c>
+      <c r="K68">
+        <v>2013</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>122628</v>
+      </c>
+      <c r="O68">
+        <v>361497</v>
+      </c>
+      <c r="P68">
+        <v>102270</v>
+      </c>
+      <c r="Q68">
+        <v>500</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>304093</v>
+      </c>
+      <c r="U68">
+        <v>25104</v>
+      </c>
+      <c r="V68">
+        <v>8327</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-2484</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-1590</v>
+      </c>
+      <c r="AA68">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>4067</v>
+      </c>
+      <c r="D69">
+        <v>59815</v>
+      </c>
+      <c r="E69">
+        <v>26398</v>
+      </c>
+      <c r="F69">
+        <v>6460</v>
+      </c>
+      <c r="G69">
+        <v>169612</v>
+      </c>
+      <c r="H69">
+        <v>681554</v>
+      </c>
+      <c r="I69">
+        <v>33272</v>
+      </c>
+      <c r="J69">
+        <v>86590</v>
+      </c>
+      <c r="K69">
+        <v>1819</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>125656</v>
+      </c>
+      <c r="O69">
+        <v>369702</v>
+      </c>
+      <c r="P69">
+        <v>101490</v>
+      </c>
+      <c r="Q69">
+        <v>16369</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>311852</v>
+      </c>
+      <c r="U69">
+        <v>39695</v>
+      </c>
+      <c r="V69">
+        <v>10877</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-1398</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>9880</v>
+      </c>
+      <c r="AA69">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>32551</v>
+      </c>
+      <c r="D70">
+        <v>58815</v>
+      </c>
+      <c r="E70">
+        <v>25945</v>
+      </c>
+      <c r="F70">
+        <v>5200</v>
+      </c>
+      <c r="G70">
+        <v>167014</v>
+      </c>
+      <c r="H70">
+        <v>702095</v>
+      </c>
+      <c r="I70">
+        <v>35821</v>
+      </c>
+      <c r="J70">
+        <v>96267</v>
+      </c>
+      <c r="K70">
+        <v>6320</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>44820</v>
+      </c>
+      <c r="O70">
+        <v>350141</v>
+      </c>
+      <c r="P70">
+        <v>102587</v>
+      </c>
+      <c r="Q70">
+        <v>-11139</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>377291</v>
+      </c>
+      <c r="T70">
+        <v>351954</v>
+      </c>
+      <c r="U70">
+        <v>31583</v>
+      </c>
+      <c r="V70">
+        <v>8229</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>469</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-13100</v>
+      </c>
+      <c r="AA70">
+        <v>32551</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-1138</v>
+      </c>
+      <c r="D71">
+        <v>58267</v>
+      </c>
+      <c r="E71">
+        <v>24780</v>
+      </c>
+      <c r="F71">
+        <v>-949</v>
+      </c>
+      <c r="G71">
+        <v>170191</v>
+      </c>
+      <c r="H71">
+        <v>702651</v>
+      </c>
+      <c r="I71">
+        <v>36463</v>
+      </c>
+      <c r="J71">
+        <v>83922</v>
+      </c>
+      <c r="K71">
+        <v>4408</v>
+      </c>
+      <c r="L71">
+        <v>-1929</v>
+      </c>
+      <c r="M71">
+        <v>-5413</v>
+      </c>
+      <c r="N71">
+        <v>100638</v>
+      </c>
+      <c r="O71">
+        <v>351599</v>
+      </c>
+      <c r="P71">
+        <v>99085</v>
+      </c>
+      <c r="Q71">
+        <v>26162</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>351052</v>
+      </c>
+      <c r="U71">
+        <v>54109</v>
+      </c>
+      <c r="V71">
+        <v>7556</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-3794</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>25103</v>
+      </c>
+      <c r="AA71">
+        <v>-1138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>12011</v>
+      </c>
+      <c r="D72">
+        <v>62572</v>
+      </c>
+      <c r="E72">
+        <v>25217</v>
+      </c>
+      <c r="F72">
+        <v>15728</v>
+      </c>
+      <c r="G72">
+        <v>172933</v>
+      </c>
+      <c r="H72">
+        <v>711932</v>
+      </c>
+      <c r="I72">
+        <v>37277</v>
+      </c>
+      <c r="J72">
+        <v>82603</v>
+      </c>
+      <c r="K72">
+        <v>5219</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>102771</v>
+      </c>
+      <c r="O72">
+        <v>350174</v>
+      </c>
+      <c r="P72">
+        <v>96773</v>
+      </c>
+      <c r="Q72">
+        <v>6802</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>361758</v>
+      </c>
+      <c r="U72">
+        <v>61281</v>
+      </c>
+      <c r="V72">
+        <v>8535</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-1722</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>3696</v>
+      </c>
+      <c r="AA72">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>18540</v>
+      </c>
+      <c r="D73">
+        <v>63587</v>
+      </c>
+      <c r="E73">
+        <v>25819</v>
+      </c>
+      <c r="F73">
+        <v>23781</v>
+      </c>
+      <c r="G73">
+        <v>166951</v>
+      </c>
+      <c r="H73">
+        <v>736459</v>
+      </c>
+      <c r="I73">
+        <v>38367</v>
+      </c>
+      <c r="J73">
+        <v>83353</v>
+      </c>
+      <c r="K73">
+        <v>3517</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>104925</v>
+      </c>
+      <c r="O73">
+        <v>357040</v>
+      </c>
+      <c r="P73">
+        <v>97640</v>
+      </c>
+      <c r="Q73">
+        <v>-23075</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>379419</v>
+      </c>
+      <c r="U73">
+        <v>39803</v>
+      </c>
+      <c r="V73">
+        <v>10464</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-10</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-28044</v>
+      </c>
+      <c r="AA73">
+        <v>18540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-25392</v>
+      </c>
+      <c r="D74">
+        <v>63111</v>
+      </c>
+      <c r="E74">
+        <v>27985</v>
+      </c>
+      <c r="F74">
+        <v>-28539</v>
+      </c>
+      <c r="G74">
+        <v>166788</v>
+      </c>
+      <c r="H74">
+        <v>707794</v>
+      </c>
+      <c r="I74">
+        <v>37075</v>
+      </c>
+      <c r="J74">
+        <v>93117</v>
+      </c>
+      <c r="K74">
+        <v>4373</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>44883</v>
+      </c>
+      <c r="O74">
+        <v>355294</v>
+      </c>
+      <c r="P74">
+        <v>97490</v>
+      </c>
+      <c r="Q74">
+        <v>-11290</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>389000</v>
+      </c>
+      <c r="T74">
+        <v>352500</v>
+      </c>
+      <c r="U74">
+        <v>30361</v>
+      </c>
+      <c r="V74">
+        <v>10845</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-286</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-14288</v>
+      </c>
+      <c r="AA74">
+        <v>-25392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>21661</v>
+      </c>
+      <c r="D75">
+        <v>60678</v>
+      </c>
+      <c r="E75">
+        <v>29464</v>
+      </c>
+      <c r="F75">
+        <v>28470</v>
+      </c>
+      <c r="G75">
+        <v>171348</v>
+      </c>
+      <c r="H75">
+        <v>738724</v>
+      </c>
+      <c r="I75">
+        <v>33698</v>
+      </c>
+      <c r="J75">
+        <v>93283</v>
+      </c>
+      <c r="K75">
+        <v>3910</v>
+      </c>
+      <c r="L75">
+        <v>-503</v>
+      </c>
+      <c r="M75">
+        <v>-4242</v>
+      </c>
+      <c r="N75">
+        <v>96241</v>
+      </c>
+      <c r="O75">
+        <v>366133</v>
+      </c>
+      <c r="P75">
+        <v>103203</v>
+      </c>
+      <c r="Q75">
+        <v>-4287</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>372591</v>
+      </c>
+      <c r="U75">
+        <v>26139</v>
+      </c>
+      <c r="V75">
+        <v>7577</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-1678</v>
+      </c>
+      <c r="Y75">
+        <v>6010</v>
+      </c>
+      <c r="Z75">
+        <v>-6934</v>
+      </c>
+      <c r="AA75">
+        <v>21661</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>14073</v>
+      </c>
+      <c r="D76">
+        <v>63598</v>
+      </c>
+      <c r="E76">
+        <v>29889</v>
+      </c>
+      <c r="F76">
+        <v>18627</v>
+      </c>
+      <c r="G76">
+        <v>180413</v>
+      </c>
+      <c r="H76">
+        <v>760108</v>
+      </c>
+      <c r="I76">
+        <v>34534</v>
+      </c>
+      <c r="J76">
+        <v>95646</v>
+      </c>
+      <c r="K76">
+        <v>4261</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>100007</v>
+      </c>
+      <c r="O76">
+        <v>373717</v>
+      </c>
+      <c r="P76">
+        <v>105841</v>
+      </c>
+      <c r="Q76">
+        <v>18578</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>386391</v>
+      </c>
+      <c r="U76">
+        <v>44634</v>
+      </c>
+      <c r="V76">
+        <v>9185</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>2089</v>
+      </c>
+      <c r="Y76">
+        <v>5934</v>
+      </c>
+      <c r="Z76">
+        <v>11346</v>
+      </c>
+      <c r="AA76">
+        <v>14073</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>16524</v>
+      </c>
+      <c r="D77">
+        <v>64972</v>
+      </c>
+      <c r="E77">
+        <v>29785</v>
+      </c>
+      <c r="F77">
+        <v>20830</v>
+      </c>
+      <c r="G77">
+        <v>187031</v>
+      </c>
+      <c r="H77">
+        <v>788482</v>
+      </c>
+      <c r="I77">
+        <v>35241</v>
+      </c>
+      <c r="J77">
+        <v>97695</v>
+      </c>
+      <c r="K77">
+        <v>4499</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>101461</v>
+      </c>
+      <c r="O77">
+        <v>386924</v>
+      </c>
+      <c r="P77">
+        <v>108046</v>
+      </c>
+      <c r="Q77">
+        <v>30189</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>401558</v>
+      </c>
+      <c r="U77">
+        <v>74776</v>
+      </c>
+      <c r="V77">
+        <v>9848</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>2098</v>
+      </c>
+      <c r="Y77">
+        <v>5852</v>
+      </c>
+      <c r="Z77">
+        <v>23780</v>
+      </c>
+      <c r="AA77">
+        <v>16524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>29159</v>
+      </c>
+      <c r="D78">
+        <v>65368</v>
+      </c>
+      <c r="E78">
+        <v>28265</v>
+      </c>
+      <c r="F78">
+        <v>37650</v>
+      </c>
+      <c r="G78">
+        <v>184286</v>
+      </c>
+      <c r="H78">
+        <v>817729</v>
+      </c>
+      <c r="I78">
+        <v>36361</v>
+      </c>
+      <c r="J78">
+        <v>98682</v>
+      </c>
+      <c r="K78">
+        <v>4686</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>44441</v>
+      </c>
+      <c r="O78">
+        <v>389166</v>
+      </c>
+      <c r="P78">
+        <v>109250</v>
+      </c>
+      <c r="Q78">
+        <v>-10659</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>391500</v>
+      </c>
+      <c r="T78">
+        <v>428563</v>
+      </c>
+      <c r="U78">
+        <v>64175</v>
+      </c>
+      <c r="V78">
+        <v>12077</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-1779</v>
+      </c>
+      <c r="Y78">
+        <v>4508</v>
+      </c>
+      <c r="Z78">
+        <v>-14925</v>
+      </c>
+      <c r="AA78">
+        <v>29159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-49746</v>
+      </c>
+      <c r="D79">
+        <v>61265</v>
+      </c>
+      <c r="E79">
+        <v>29492</v>
+      </c>
+      <c r="F79">
+        <v>-62325</v>
+      </c>
+      <c r="G79">
+        <v>196028</v>
+      </c>
+      <c r="H79">
+        <v>760448</v>
+      </c>
+      <c r="I79">
+        <v>39428</v>
+      </c>
+      <c r="J79">
+        <v>100678</v>
+      </c>
+      <c r="K79">
+        <v>3555</v>
+      </c>
+      <c r="L79">
+        <v>-1133</v>
+      </c>
+      <c r="M79">
+        <v>-3250</v>
+      </c>
+      <c r="N79">
+        <v>98101</v>
+      </c>
+      <c r="O79">
+        <v>385213</v>
+      </c>
+      <c r="P79">
+        <v>104233</v>
+      </c>
+      <c r="Q79">
+        <v>-21536</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>375235</v>
+      </c>
+      <c r="U79">
+        <v>42640</v>
+      </c>
+      <c r="V79">
+        <v>6798</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-346</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-24366</v>
+      </c>
+      <c r="AA79">
+        <v>-49746</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>26295</v>
+      </c>
+      <c r="D80">
+        <v>56840</v>
+      </c>
+      <c r="E80">
+        <v>28862</v>
+      </c>
+      <c r="F80">
+        <v>47302</v>
+      </c>
+      <c r="G80">
+        <v>203361</v>
+      </c>
+      <c r="H80">
+        <v>788133</v>
+      </c>
+      <c r="I80">
+        <v>40494</v>
+      </c>
+      <c r="J80">
+        <v>103531</v>
+      </c>
+      <c r="K80">
+        <v>3158</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>106658</v>
+      </c>
+      <c r="O80">
+        <v>390880</v>
+      </c>
+      <c r="P80">
+        <v>106689</v>
+      </c>
+      <c r="Q80">
+        <v>-6509</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>397253</v>
+      </c>
+      <c r="U80">
+        <v>36074</v>
+      </c>
+      <c r="V80">
+        <v>10668</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-2474</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-10749</v>
+      </c>
+      <c r="AA80">
+        <v>26295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>30137</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>63024</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>29737</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>38665</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>203780</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>829946</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>43917</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>104331</v>
       </c>
-      <c r="K42">
+      <c r="K81">
         <v>3360</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>123068</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>410731</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>107691</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>-9150</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44104</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>419215</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>26817</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>11761</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>-8856</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
         <v>-7628</v>
       </c>
-      <c r="AA42">
+      <c r="AA81">
         <v>30137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>35835</v>
+      </c>
+      <c r="D82">
+        <v>64381</v>
+      </c>
+      <c r="E82">
+        <v>27972</v>
+      </c>
+      <c r="F82">
+        <v>46079</v>
+      </c>
+      <c r="G82">
+        <v>194026</v>
+      </c>
+      <c r="H82">
+        <v>873729</v>
+      </c>
+      <c r="I82">
+        <v>38913</v>
+      </c>
+      <c r="J82">
+        <v>104149</v>
+      </c>
+      <c r="K82">
+        <v>3348</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>55024</v>
+      </c>
+      <c r="O82">
+        <v>422393</v>
+      </c>
+      <c r="P82">
+        <v>122364</v>
+      </c>
+      <c r="Q82">
+        <v>20959</v>
+      </c>
+      <c r="R82">
+        <v>44196</v>
+      </c>
+      <c r="S82">
+        <v>360000</v>
+      </c>
+      <c r="T82">
+        <v>451336</v>
+      </c>
+      <c r="U82">
+        <v>47990</v>
+      </c>
+      <c r="V82">
+        <v>10546</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>-6668</v>
+      </c>
+      <c r="Y82">
+        <v>4127</v>
+      </c>
+      <c r="Z82">
+        <v>24491</v>
+      </c>
+      <c r="AA82">
+        <v>35835</v>
       </c>
     </row>
   </sheetData>
